--- a/biology/Botanique/Pilularia_globulifera/Pilularia_globulifera.xlsx
+++ b/biology/Botanique/Pilularia_globulifera/Pilularia_globulifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Pilularia globulifera, appelée pilulaire ou parfois boulette d'eau ou encore pilulaire à globules, est une fougère filamenteuse aquatique vivace de la famille des Marsileaceae. Elle est caractérisée par des sporocarpes globuleux contenant les sporanges. Elle est protégée sur tout le territoire français - Annexes I et II.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette fougère herbacée, aquatique, a tendance à passer inaperçue lorsqu'elle est au milieu des joncs. En effet, ses frondes linéaires rappellent ces derniers, mais elles partent d'un rhizome rampant portant de fines racines. Comme chez la plupart des fougères, les jeunes feuilles sont enroulées en forme de crosse[1].
-Appareil reproducteur
-Les sporocarpes sont situés à la base des feuilles, et attachés au rhizome. Ils sont bruns à maturité, et portent un duvet fin et court. Ils comportent 4 loges contenant des microsporanges produisant des microspores mâles, et des macrosporanges produisant des macrospores femelles (hétérosporie)[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette fougère herbacée, aquatique, a tendance à passer inaperçue lorsqu'elle est au milieu des joncs. En effet, ses frondes linéaires rappellent ces derniers, mais elles partent d'un rhizome rampant portant de fines racines. Comme chez la plupart des fougères, les jeunes feuilles sont enroulées en forme de crosse.
 </t>
         </is>
       </c>
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sporocarpes sont situés à la base des feuilles, et attachés au rhizome. Ils sont bruns à maturité, et portent un duvet fin et court. Ils comportent 4 loges contenant des microsporanges produisant des microspores mâles, et des macrosporanges produisant des macrospores femelles (hétérosporie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pilularia_globulifera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pilularia_globulifera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vit sur la bordure des étangs.
 </t>
